--- a/REGULAR/OJT/HERNANDEZ, CORNELIO.xlsx
+++ b/REGULAR/OJT/HERNANDEZ, CORNELIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEFFB3-DAE7-4B80-9730-D2028715B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -865,7 +864,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1259,6 +1258,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,9 +1296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,7 +1745,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1788,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1852,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1912,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1978,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2041,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2139,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2198,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2263,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2306,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2381,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2567,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2633,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2691,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2757,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2813,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2888,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2931,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +2997,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3053,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3151,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3214,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3281,26 +3280,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K486" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K486"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3312,13 +3311,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3327,14 +3326,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3638,7 +3637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3648,7 +3647,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3656,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3665,82 +3664,82 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A409" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C416" sqref="C416:C418"/>
+      <selection pane="bottomLeft" activeCell="K422" sqref="K422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3748,7 +3747,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3761,24 +3760,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="47" t="s">
         <v>23</v>
@@ -3822,7 +3821,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>142.42499999999993</v>
+        <v>146.17499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3832,12 +3831,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>183.25</v>
+        <v>187</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="51" t="s">
         <v>42</v>
@@ -3859,7 +3858,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <v>35947</v>
       </c>
@@ -3879,7 +3878,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>35977</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>36008</v>
       </c>
@@ -3919,7 +3918,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>36039</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>36069</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>36100</v>
       </c>
@@ -3983,7 +3982,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>36130</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>43</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>36161</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>36192</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>36220</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>36251</v>
       </c>
@@ -4109,7 +4108,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>36281</v>
       </c>
@@ -4129,7 +4128,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>36312</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>36342</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>36373</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>36404</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>36434</v>
       </c>
@@ -4235,7 +4234,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>36465</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>36495</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>44</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>36526</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20" t="s">
         <v>73</v>
@@ -4341,7 +4340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>36557</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>36586</v>
       </c>
@@ -4381,7 +4380,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>36617</v>
       </c>
@@ -4401,7 +4400,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>36647</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>36678</v>
       </c>
@@ -4441,7 +4440,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>36708</v>
       </c>
@@ -4461,7 +4460,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>36739</v>
       </c>
@@ -4481,7 +4480,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>36770</v>
       </c>
@@ -4501,7 +4500,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>36800</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>77</v>
@@ -4549,7 +4548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>36831</v>
       </c>
@@ -4569,7 +4568,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>36861</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>45</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>36892</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>36923</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>36951</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>77</v>
@@ -4705,7 +4704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>36982</v>
       </c>
@@ -4725,7 +4724,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>37012</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>37043</v>
       </c>
@@ -4765,7 +4764,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>37073</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>37104</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>37135</v>
       </c>
@@ -4831,7 +4830,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>37165</v>
       </c>
@@ -4851,7 +4850,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>37196</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>37226</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>46</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>37257</v>
       </c>
@@ -4933,7 +4932,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>37288</v>
       </c>
@@ -4953,7 +4952,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>37316</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>37347</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>37377</v>
       </c>
@@ -5013,7 +5012,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>37408</v>
       </c>
@@ -5033,7 +5032,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>37438</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>37469</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20" t="s">
         <v>88</v>
@@ -5103,7 +5102,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>37500</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>37530</v>
       </c>
@@ -5149,7 +5148,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>37561</v>
       </c>
@@ -5173,7 +5172,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>37591</v>
       </c>
@@ -5197,7 +5196,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20" t="s">
         <v>90</v>
@@ -5217,7 +5216,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>47</v>
       </c>
@@ -5239,7 +5238,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>37622</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>37653</v>
       </c>
@@ -5283,7 +5282,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>37681</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20" t="s">
         <v>90</v>
@@ -5326,7 +5325,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>37712</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>37742</v>
       </c>
@@ -5372,7 +5371,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>37773</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
         <v>96</v>
@@ -5420,7 +5419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>37803</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>37834</v>
       </c>
@@ -5460,7 +5459,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>37865</v>
       </c>
@@ -5484,7 +5483,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>37895</v>
       </c>
@@ -5508,7 +5507,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>37926</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>101</v>
@@ -5554,7 +5553,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>37956</v>
       </c>
@@ -5574,7 +5573,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
         <v>48</v>
       </c>
@@ -5596,7 +5595,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>37987</v>
       </c>
@@ -5616,7 +5615,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>38018</v>
       </c>
@@ -5636,7 +5635,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
         <v>38047</v>
       </c>
@@ -5656,7 +5655,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>38078</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>38108</v>
       </c>
@@ -5696,7 +5695,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>38139</v>
       </c>
@@ -5716,7 +5715,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>38169</v>
       </c>
@@ -5736,7 +5735,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>38200</v>
       </c>
@@ -5756,7 +5755,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>38231</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>38261</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>38292</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>38322</v>
       </c>
@@ -5848,7 +5847,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
         <v>49</v>
       </c>
@@ -5870,7 +5869,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>38353</v>
       </c>
@@ -5894,7 +5893,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <v>38384</v>
       </c>
@@ -5918,7 +5917,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>38412</v>
       </c>
@@ -5942,7 +5941,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>38443</v>
       </c>
@@ -5966,7 +5965,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>38473</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>38504</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>38534</v>
       </c>
@@ -6042,7 +6041,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>38565</v>
       </c>
@@ -6066,7 +6065,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>38596</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <v>38626</v>
       </c>
@@ -6112,7 +6111,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>38657</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>38687</v>
       </c>
@@ -6162,7 +6161,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="53" t="s">
         <v>50</v>
       </c>
@@ -6184,7 +6183,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>38718</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>38734</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20" t="s">
         <v>118</v>
@@ -6230,7 +6229,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>38749</v>
       </c>
@@ -6254,7 +6253,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>38777</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20" t="s">
         <v>67</v>
@@ -6298,7 +6297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
         <v>38808</v>
       </c>
@@ -6322,7 +6321,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>38838</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>38869</v>
       </c>
@@ -6368,7 +6367,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>38899</v>
       </c>
@@ -6392,7 +6391,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>38930</v>
       </c>
@@ -6416,7 +6415,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>38961</v>
       </c>
@@ -6440,7 +6439,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>38991</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>73</v>
@@ -6488,7 +6487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="B131" s="20" t="s">
         <v>128</v>
@@ -6508,7 +6507,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>39022</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38"/>
       <c r="B133" s="20" t="s">
         <v>129</v>
@@ -6554,7 +6553,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>39052</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>73</v>
@@ -6602,7 +6601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38"/>
       <c r="B136" s="20" t="s">
         <v>130</v>
@@ -6622,7 +6621,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38"/>
       <c r="B137" s="20" t="s">
         <v>131</v>
@@ -6642,7 +6641,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>51</v>
       </c>
@@ -6664,7 +6663,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>39083</v>
       </c>
@@ -6688,7 +6687,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>39114</v>
       </c>
@@ -6712,7 +6711,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>39142</v>
       </c>
@@ -6736,7 +6735,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>39173</v>
       </c>
@@ -6760,7 +6759,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>39203</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>39234</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
         <v>39264</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>39295</v>
       </c>
@@ -6862,7 +6861,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>39326</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38"/>
       <c r="B148" s="20" t="s">
         <v>145</v>
@@ -6905,7 +6904,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
         <v>39356</v>
       </c>
@@ -6925,7 +6924,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>39387</v>
       </c>
@@ -6949,7 +6948,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>39417</v>
       </c>
@@ -6973,7 +6972,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="53" t="s">
         <v>52</v>
       </c>
@@ -6995,7 +6994,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>39448</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>148</v>
@@ -7041,7 +7040,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>39479</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38"/>
       <c r="B156" s="20" t="s">
         <v>149</v>
@@ -7087,7 +7086,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>150</v>
@@ -7109,7 +7108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38"/>
       <c r="B158" s="20" t="s">
         <v>151</v>
@@ -7129,7 +7128,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>152</v>
@@ -7149,7 +7148,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>39508</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38"/>
       <c r="B161" s="20" t="s">
         <v>67</v>
@@ -7195,7 +7194,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38"/>
       <c r="B162" s="20" t="s">
         <v>89</v>
@@ -7215,7 +7214,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>39539</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>39569</v>
       </c>
@@ -7259,7 +7258,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>39600</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>161</v>
@@ -7305,7 +7304,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>39630</v>
       </c>
@@ -7331,7 +7330,7 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>84</v>
@@ -7353,7 +7352,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>162</v>
@@ -7373,7 +7372,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>39661</v>
       </c>
@@ -7397,7 +7396,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>39692</v>
       </c>
@@ -7421,7 +7420,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>39722</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>77</v>
@@ -7469,7 +7468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38"/>
       <c r="B174" s="20" t="s">
         <v>94</v>
@@ -7491,7 +7490,7 @@
         <v>39762</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>39753</v>
       </c>
@@ -7511,7 +7510,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>39783</v>
       </c>
@@ -7531,7 +7530,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="53" t="s">
         <v>53</v>
       </c>
@@ -7553,7 +7552,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <v>39814</v>
       </c>
@@ -7577,7 +7576,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>39845</v>
       </c>
@@ -7601,7 +7600,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>39873</v>
       </c>
@@ -7625,7 +7624,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38">
         <v>39904</v>
       </c>
@@ -7649,7 +7648,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>39934</v>
       </c>
@@ -7673,7 +7672,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>39965</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>175</v>
@@ -7716,7 +7715,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>39995</v>
       </c>
@@ -7737,7 +7736,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>40026</v>
       </c>
@@ -7761,7 +7760,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38">
         <v>40057</v>
       </c>
@@ -7785,7 +7784,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38">
         <v>40087</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38"/>
       <c r="B189" s="20" t="s">
         <v>179</v>
@@ -7828,7 +7827,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38">
         <v>40118</v>
       </c>
@@ -7852,7 +7851,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <v>40148</v>
       </c>
@@ -7876,7 +7875,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="20" t="s">
         <v>180</v>
@@ -7896,7 +7895,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="53" t="s">
         <v>54</v>
       </c>
@@ -7918,7 +7917,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>40179</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>181</v>
@@ -7964,7 +7963,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>40210</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="20" t="s">
         <v>130</v>
@@ -8010,7 +8009,7 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>184</v>
@@ -8030,7 +8029,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>40238</v>
       </c>
@@ -8054,7 +8053,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>40269</v>
       </c>
@@ -8078,7 +8077,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38">
         <v>40299</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38"/>
       <c r="B202" s="20" t="s">
         <v>187</v>
@@ -8124,7 +8123,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>40330</v>
       </c>
@@ -8148,7 +8147,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>40360</v>
       </c>
@@ -8172,7 +8171,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38">
         <v>40391</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="20" t="s">
         <v>73</v>
@@ -8217,7 +8216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>192</v>
@@ -8234,7 +8233,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>40422</v>
       </c>
@@ -8258,7 +8257,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>40452</v>
       </c>
@@ -8282,7 +8281,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38">
         <v>40483</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="20" t="s">
         <v>110</v>
@@ -8327,7 +8326,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="20" t="s">
         <v>73</v>
@@ -8346,7 +8345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>196</v>
@@ -8363,7 +8362,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>40513</v>
       </c>
@@ -8387,7 +8386,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="53" t="s">
         <v>55</v>
       </c>
@@ -8409,7 +8408,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38">
         <v>40544</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38"/>
       <c r="B217" s="20" t="s">
         <v>201</v>
@@ -8455,7 +8454,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>40575</v>
       </c>
@@ -8479,7 +8478,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>40603</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="20" t="s">
         <v>67</v>
@@ -8525,7 +8524,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
         <v>73</v>
@@ -8547,7 +8546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="20" t="s">
         <v>203</v>
@@ -8567,7 +8566,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <v>40634</v>
       </c>
@@ -8591,7 +8590,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38">
         <v>40664</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>205</v>
@@ -8637,7 +8636,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38">
         <v>40695</v>
       </c>
@@ -8657,7 +8656,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38">
         <v>40725</v>
       </c>
@@ -8677,7 +8676,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <v>40756</v>
       </c>
@@ -8697,7 +8696,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38">
         <v>40787</v>
       </c>
@@ -8717,7 +8716,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38">
         <v>40817</v>
       </c>
@@ -8737,7 +8736,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>40848</v>
       </c>
@@ -8757,7 +8756,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38">
         <v>40878</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>73</v>
@@ -8805,7 +8804,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="B234" s="20" t="s">
         <v>211</v>
@@ -8825,7 +8824,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
         <v>106</v>
@@ -8845,7 +8844,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="53" t="s">
         <v>56</v>
       </c>
@@ -8867,7 +8866,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38">
         <v>40909</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>40931</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>40940</v>
       </c>
@@ -8913,7 +8912,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38">
         <v>40969</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38"/>
       <c r="B240" s="20" t="s">
         <v>67</v>
@@ -8954,7 +8953,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38">
         <v>41000</v>
       </c>
@@ -8974,7 +8973,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>41030</v>
       </c>
@@ -8994,7 +8993,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>41061</v>
       </c>
@@ -9014,7 +9013,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>41091</v>
       </c>
@@ -9034,7 +9033,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38">
         <v>41122</v>
       </c>
@@ -9054,7 +9053,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>41153</v>
       </c>
@@ -9074,7 +9073,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>41183</v>
       </c>
@@ -9094,7 +9093,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>41214</v>
       </c>
@@ -9114,7 +9113,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38">
         <v>41244</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="53" t="s">
         <v>57</v>
       </c>
@@ -9162,7 +9161,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>41275</v>
       </c>
@@ -9182,7 +9181,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>41306</v>
       </c>
@@ -9202,7 +9201,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>41334</v>
       </c>
@@ -9222,7 +9221,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38">
         <v>41365</v>
       </c>
@@ -9242,7 +9241,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38">
         <v>41395</v>
       </c>
@@ -9262,7 +9261,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>41426</v>
       </c>
@@ -9282,7 +9281,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>41456</v>
       </c>
@@ -9302,7 +9301,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38">
         <v>41487</v>
       </c>
@@ -9322,7 +9321,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38">
         <v>41518</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>41548</v>
       </c>
@@ -9370,7 +9369,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>41579</v>
       </c>
@@ -9390,7 +9389,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <v>41609</v>
       </c>
@@ -9414,7 +9413,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="53" t="s">
         <v>58</v>
       </c>
@@ -9436,7 +9435,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>41640</v>
       </c>
@@ -9460,7 +9459,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>41671</v>
       </c>
@@ -9480,7 +9479,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>41699</v>
       </c>
@@ -9500,7 +9499,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>41730</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38">
         <v>41760</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>41791</v>
       </c>
@@ -9574,7 +9573,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38">
         <v>41821</v>
       </c>
@@ -9598,7 +9597,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>41852</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38"/>
       <c r="B272" s="20" t="s">
         <v>225</v>
@@ -9644,7 +9643,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38">
         <v>41883</v>
       </c>
@@ -9668,7 +9667,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>41913</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38"/>
       <c r="B275" s="20" t="s">
         <v>227</v>
@@ -9714,7 +9713,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38">
         <v>41944</v>
       </c>
@@ -9738,7 +9737,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>41974</v>
       </c>
@@ -9762,7 +9761,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38"/>
       <c r="B278" s="20" t="s">
         <v>211</v>
@@ -9782,7 +9781,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="53" t="s">
         <v>59</v>
       </c>
@@ -9804,7 +9803,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>42005</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>230</v>
@@ -9850,7 +9849,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>42036</v>
       </c>
@@ -9870,7 +9869,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>42064</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>231</v>
@@ -9914,7 +9913,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38">
         <v>42095</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38"/>
       <c r="B286" s="20" t="s">
         <v>94</v>
@@ -9960,7 +9959,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38"/>
       <c r="B287" s="20" t="s">
         <v>106</v>
@@ -9980,7 +9979,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>42125</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>42156</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>42181</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38"/>
       <c r="B290" s="20" t="s">
         <v>233</v>
@@ -10047,7 +10046,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>42186</v>
       </c>
@@ -10071,7 +10070,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>42217</v>
       </c>
@@ -10091,7 +10090,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>42248</v>
       </c>
@@ -10111,7 +10110,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <v>42278</v>
       </c>
@@ -10131,7 +10130,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>42309</v>
       </c>
@@ -10151,7 +10150,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>42339</v>
       </c>
@@ -10175,7 +10174,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="53" t="s">
         <v>60</v>
       </c>
@@ -10197,7 +10196,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>42370</v>
       </c>
@@ -10217,7 +10216,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <v>42401</v>
       </c>
@@ -10237,7 +10236,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>42430</v>
       </c>
@@ -10257,7 +10256,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>42461</v>
       </c>
@@ -10277,7 +10276,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>42491</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>42522</v>
       </c>
@@ -10323,7 +10322,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>42552</v>
       </c>
@@ -10343,7 +10342,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38">
         <v>42583</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>42614</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>239</v>
@@ -10417,7 +10416,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38">
         <v>42644</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38"/>
       <c r="B309" s="20" t="s">
         <v>76</v>
@@ -10465,7 +10464,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>73</v>
@@ -10487,7 +10486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <v>42675</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>73</v>
@@ -10535,7 +10534,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38">
         <v>42705</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="53" t="s">
         <v>61</v>
       </c>
@@ -10583,7 +10582,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>42736</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>42767</v>
       </c>
@@ -10629,7 +10628,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>42795</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>76</v>
@@ -10675,7 +10674,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>67</v>
@@ -10695,7 +10694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>42826</v>
       </c>
@@ -10715,7 +10714,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>42856</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>94</v>
@@ -10763,7 +10762,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38"/>
       <c r="B323" s="20" t="s">
         <v>94</v>
@@ -10785,7 +10784,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>246</v>
@@ -10807,7 +10806,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38"/>
       <c r="B325" s="20" t="s">
         <v>94</v>
@@ -10829,7 +10828,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38">
         <v>42887</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>67</v>
@@ -10875,7 +10874,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38"/>
       <c r="B328" s="20" t="s">
         <v>76</v>
@@ -10897,7 +10896,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>42917</v>
       </c>
@@ -10917,7 +10916,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>42948</v>
       </c>
@@ -10943,7 +10942,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38"/>
       <c r="B331" s="20" t="s">
         <v>94</v>
@@ -10965,7 +10964,7 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>42979</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>43004</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>110</v>
@@ -11013,7 +11012,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <v>43009</v>
       </c>
@@ -11033,7 +11032,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>43040</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38">
         <v>43070</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>73</v>
@@ -11107,7 +11106,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="53" t="s">
         <v>62</v>
       </c>
@@ -11129,7 +11128,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
         <v>43101</v>
       </c>
@@ -11155,7 +11154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
         <v>43132</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>43160</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>76</v>
@@ -11229,7 +11228,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>43191</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>94</v>
@@ -11277,7 +11276,7 @@
         <v>43232</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>43221</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>43252</v>
       </c>
@@ -11323,7 +11322,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38">
         <v>43282</v>
       </c>
@@ -11343,7 +11342,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>43313</v>
       </c>
@@ -11363,7 +11362,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38">
         <v>43344</v>
       </c>
@@ -11383,7 +11382,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>43374</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
         <v>43405</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>94</v>
@@ -11457,7 +11456,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>72</v>
@@ -11479,7 +11478,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38"/>
       <c r="B354" s="20" t="s">
         <v>96</v>
@@ -11501,7 +11500,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>43435</v>
       </c>
@@ -11521,7 +11520,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="53" t="s">
         <v>63</v>
       </c>
@@ -11543,7 +11542,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>43466</v>
       </c>
@@ -11563,7 +11562,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <v>43497</v>
       </c>
@@ -11583,7 +11582,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>43525</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>43556</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38"/>
       <c r="B361" s="20" t="s">
         <v>94</v>
@@ -11652,7 +11651,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38"/>
       <c r="B362" s="20" t="s">
         <v>94</v>
@@ -11671,7 +11670,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
         <v>43586</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>43617</v>
       </c>
@@ -11715,7 +11714,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <v>43647</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
         <v>43678</v>
       </c>
@@ -11761,7 +11760,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>43709</v>
       </c>
@@ -11781,7 +11780,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38">
         <v>43739</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
         <v>43770</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38"/>
       <c r="B370" s="20" t="s">
         <v>94</v>
@@ -11852,7 +11851,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38"/>
       <c r="B371" s="20" t="s">
         <v>77</v>
@@ -11871,7 +11870,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38">
         <v>43800</v>
       </c>
@@ -11891,7 +11890,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="53" t="s">
         <v>64</v>
       </c>
@@ -11913,7 +11912,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38">
         <v>43831</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>265</v>
@@ -11956,7 +11955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38"/>
       <c r="B376" s="20" t="s">
         <v>266</v>
@@ -11973,7 +11972,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38">
         <v>43862</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="20" t="s">
         <v>94</v>
@@ -12021,7 +12020,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38">
         <v>43891</v>
       </c>
@@ -12041,7 +12040,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38">
         <v>43922</v>
       </c>
@@ -12061,7 +12060,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38">
         <v>43952</v>
       </c>
@@ -12081,7 +12080,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <v>43983</v>
       </c>
@@ -12101,7 +12100,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38">
         <v>44013</v>
       </c>
@@ -12121,7 +12120,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <v>44044</v>
       </c>
@@ -12141,7 +12140,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38">
         <v>44075</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38">
         <v>44105</v>
       </c>
@@ -12187,7 +12186,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="38">
         <v>44136</v>
       </c>
@@ -12207,7 +12206,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <v>44166</v>
       </c>
@@ -12231,7 +12230,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="53" t="s">
         <v>65</v>
       </c>
@@ -12253,7 +12252,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38">
         <v>44197</v>
       </c>
@@ -12273,7 +12272,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <v>44228</v>
       </c>
@@ -12293,7 +12292,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38">
         <v>44256</v>
       </c>
@@ -12313,7 +12312,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38">
         <v>44287</v>
       </c>
@@ -12333,7 +12332,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38">
         <v>44317</v>
       </c>
@@ -12353,7 +12352,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38">
         <v>44348</v>
       </c>
@@ -12373,7 +12372,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38">
         <v>44378</v>
       </c>
@@ -12393,7 +12392,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38">
         <v>44409</v>
       </c>
@@ -12413,7 +12412,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38">
         <v>44440</v>
       </c>
@@ -12433,7 +12432,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38">
         <v>44470</v>
       </c>
@@ -12453,7 +12452,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38">
         <v>44501</v>
       </c>
@@ -12473,7 +12472,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38">
         <v>44531</v>
       </c>
@@ -12497,7 +12496,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="53" t="s">
         <v>66</v>
       </c>
@@ -12519,7 +12518,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38">
         <v>44562</v>
       </c>
@@ -12539,7 +12538,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38">
         <v>44593</v>
       </c>
@@ -12559,7 +12558,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38">
         <v>44621</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <v>44652</v>
       </c>
@@ -12611,7 +12610,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38">
         <v>44682</v>
       </c>
@@ -12631,7 +12630,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38">
         <v>44713</v>
       </c>
@@ -12651,7 +12650,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38">
         <v>44743</v>
       </c>
@@ -12671,7 +12670,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38">
         <v>44774</v>
       </c>
@@ -12691,7 +12690,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38">
         <v>44805</v>
       </c>
@@ -12711,7 +12710,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="38">
         <v>44835</v>
       </c>
@@ -12731,7 +12730,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38">
         <v>44866</v>
       </c>
@@ -12751,7 +12750,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38">
         <v>44896</v>
       </c>
@@ -12771,7 +12770,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="53" t="s">
         <v>274</v>
       </c>
@@ -12789,7 +12788,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38">
         <v>44927</v>
       </c>
@@ -12809,7 +12808,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38">
         <v>44958</v>
       </c>
@@ -12829,7 +12828,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38">
         <v>44986</v>
       </c>
@@ -12849,65 +12848,73 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38">
         <v>45017</v>
       </c>
       <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="37"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H419" s="37"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38">
         <v>45047</v>
       </c>
       <c r="B420" s="20"/>
-      <c r="C420" s="13"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D420" s="37"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="37"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38">
         <v>45078</v>
       </c>
       <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D421" s="37"/>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="37"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38">
         <v>45108</v>
       </c>
-      <c r="B422" s="20"/>
+      <c r="B422" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C422" s="13"/>
       <c r="D422" s="37"/>
       <c r="E422" s="9"/>
@@ -12919,9 +12926,11 @@
       <c r="H422" s="37"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K422" s="54">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <v>45139</v>
       </c>
@@ -12939,7 +12948,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38">
         <v>45170</v>
       </c>
@@ -12957,7 +12966,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38">
         <v>45200</v>
       </c>
@@ -12975,7 +12984,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="38">
         <v>45231</v>
       </c>
@@ -12993,7 +13002,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <v>45261</v>
       </c>
@@ -13011,7 +13020,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38">
         <v>45292</v>
       </c>
@@ -13029,7 +13038,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38">
         <v>45323</v>
       </c>
@@ -13047,7 +13056,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38">
         <v>45352</v>
       </c>
@@ -13065,7 +13074,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38">
         <v>45383</v>
       </c>
@@ -13083,7 +13092,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38">
         <v>45413</v>
       </c>
@@ -13101,7 +13110,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38">
         <v>45444</v>
       </c>
@@ -13119,7 +13128,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38">
         <v>45474</v>
       </c>
@@ -13137,7 +13146,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38">
         <v>45505</v>
       </c>
@@ -13155,7 +13164,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38">
         <v>45536</v>
       </c>
@@ -13173,7 +13182,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38">
         <v>45566</v>
       </c>
@@ -13191,7 +13200,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13207,7 +13216,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13223,7 +13232,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13239,7 +13248,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="38"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13255,7 +13264,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13271,7 +13280,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13287,7 +13296,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13303,7 +13312,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13319,7 +13328,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13335,7 +13344,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13351,7 +13360,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13367,7 +13376,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13383,7 +13392,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13399,7 +13408,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13415,7 +13424,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13431,7 +13440,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13447,7 +13456,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13463,7 +13472,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13479,7 +13488,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="38"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13495,7 +13504,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13511,7 +13520,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13527,7 +13536,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13543,7 +13552,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13559,7 +13568,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13575,7 +13584,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13591,7 +13600,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="38"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13607,7 +13616,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13623,7 +13632,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13639,7 +13648,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13655,7 +13664,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13671,7 +13680,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13687,7 +13696,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13703,7 +13712,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13719,7 +13728,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13735,7 +13744,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13751,7 +13760,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -13767,7 +13776,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13783,7 +13792,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13799,7 +13808,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -13815,7 +13824,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -13831,7 +13840,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="38"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -13847,7 +13856,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -13863,7 +13872,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -13879,7 +13888,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -13895,7 +13904,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -13911,7 +13920,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -13927,7 +13936,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="38"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -13943,7 +13952,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13959,8 +13968,8 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="68"/>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="56"/>
       <c r="B486" s="15"/>
       <c r="C486" s="39"/>
       <c r="D486" s="40"/>
@@ -13990,10 +13999,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14016,7 +14025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14024,34 +14033,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="66" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -14080,7 +14089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -14104,17 +14113,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -14128,14 +14137,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -14162,7 +14171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -14188,7 +14197,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -14214,7 +14223,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -14241,7 +14250,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -14267,7 +14276,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -14293,7 +14302,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -14345,7 +14354,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -14365,7 +14374,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -14385,7 +14394,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -14405,7 +14414,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -14426,7 +14435,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -14447,7 +14456,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -14468,7 +14477,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -14489,7 +14498,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -14510,7 +14519,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -14531,7 +14540,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -14552,7 +14561,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -14573,7 +14582,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -14594,7 +14603,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -14615,7 +14624,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -14636,7 +14645,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -14657,7 +14666,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -14678,7 +14687,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -14699,7 +14708,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -14720,7 +14729,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -14741,7 +14750,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -14762,7 +14771,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -14804,7 +14813,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -14825,7 +14834,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -14834,7 +14843,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -14843,7 +14852,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -14852,7 +14861,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -14861,7 +14870,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -14870,7 +14879,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -14879,7 +14888,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -14888,7 +14897,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -14897,7 +14906,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -14906,7 +14915,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -14915,7 +14924,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -14924,7 +14933,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -14933,7 +14942,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -14942,7 +14951,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -14951,7 +14960,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -14960,7 +14969,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -14969,7 +14978,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -14978,7 +14987,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -14987,7 +14996,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -14996,7 +15005,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -15005,7 +15014,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -15014,7 +15023,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -15023,7 +15032,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -15032,7 +15041,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -15041,7 +15050,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -15050,7 +15059,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -15059,7 +15068,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -15068,7 +15077,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -15077,7 +15086,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -15086,7 +15095,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/HERNANDEZ, CORNELIO.xlsx
+++ b/REGULAR/OJT/HERNANDEZ, CORNELIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="277">
   <si>
     <t>PERIOD</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,9 +1262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1748,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1791,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1915,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1981,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2044,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2142,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2201,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2266,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2309,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2384,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2570,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2636,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2694,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2760,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2816,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2891,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2931,7 +2934,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3000,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3056,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3154,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3217,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,8 +3283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K486"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K427" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K427"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3659,12 +3662,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K486"/>
+  <dimension ref="A2:K427"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A409" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K422" sqref="K422"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A351"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,58 +3689,60 @@
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3763,18 +3768,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3821,7 +3826,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>146.17499999999993</v>
+        <v>173.17499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3831,7 +3836,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>187</v>
+        <v>252.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12915,13 +12920,15 @@
       <c r="B422" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C422" s="13"/>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D422" s="37"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H422" s="37"/>
       <c r="I422" s="9"/>
@@ -13019,970 +13026,6 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="38">
-        <v>45292</v>
-      </c>
-      <c r="B428" s="20"/>
-      <c r="C428" s="13"/>
-      <c r="D428" s="37"/>
-      <c r="E428" s="9"/>
-      <c r="F428" s="20"/>
-      <c r="G428" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H428" s="37"/>
-      <c r="I428" s="9"/>
-      <c r="J428" s="11"/>
-      <c r="K428" s="20"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B429" s="20"/>
-      <c r="C429" s="13"/>
-      <c r="D429" s="37"/>
-      <c r="E429" s="9"/>
-      <c r="F429" s="20"/>
-      <c r="G429" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H429" s="37"/>
-      <c r="I429" s="9"/>
-      <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B430" s="20"/>
-      <c r="C430" s="13"/>
-      <c r="D430" s="37"/>
-      <c r="E430" s="9"/>
-      <c r="F430" s="20"/>
-      <c r="G430" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H430" s="37"/>
-      <c r="I430" s="9"/>
-      <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="38">
-        <v>45383</v>
-      </c>
-      <c r="B431" s="20"/>
-      <c r="C431" s="13"/>
-      <c r="D431" s="37"/>
-      <c r="E431" s="9"/>
-      <c r="F431" s="20"/>
-      <c r="G431" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H431" s="37"/>
-      <c r="I431" s="9"/>
-      <c r="J431" s="11"/>
-      <c r="K431" s="20"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="38">
-        <v>45413</v>
-      </c>
-      <c r="B432" s="20"/>
-      <c r="C432" s="13"/>
-      <c r="D432" s="37"/>
-      <c r="E432" s="9"/>
-      <c r="F432" s="20"/>
-      <c r="G432" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H432" s="37"/>
-      <c r="I432" s="9"/>
-      <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="38">
-        <v>45444</v>
-      </c>
-      <c r="B433" s="20"/>
-      <c r="C433" s="13"/>
-      <c r="D433" s="37"/>
-      <c r="E433" s="9"/>
-      <c r="F433" s="20"/>
-      <c r="G433" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H433" s="37"/>
-      <c r="I433" s="9"/>
-      <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="38">
-        <v>45474</v>
-      </c>
-      <c r="B434" s="20"/>
-      <c r="C434" s="13"/>
-      <c r="D434" s="37"/>
-      <c r="E434" s="9"/>
-      <c r="F434" s="20"/>
-      <c r="G434" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H434" s="37"/>
-      <c r="I434" s="9"/>
-      <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="38">
-        <v>45505</v>
-      </c>
-      <c r="B435" s="20"/>
-      <c r="C435" s="13"/>
-      <c r="D435" s="37"/>
-      <c r="E435" s="9"/>
-      <c r="F435" s="20"/>
-      <c r="G435" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H435" s="37"/>
-      <c r="I435" s="9"/>
-      <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="38">
-        <v>45536</v>
-      </c>
-      <c r="B436" s="20"/>
-      <c r="C436" s="13"/>
-      <c r="D436" s="37"/>
-      <c r="E436" s="9"/>
-      <c r="F436" s="20"/>
-      <c r="G436" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H436" s="37"/>
-      <c r="I436" s="9"/>
-      <c r="J436" s="11"/>
-      <c r="K436" s="20"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="38">
-        <v>45566</v>
-      </c>
-      <c r="B437" s="20"/>
-      <c r="C437" s="13"/>
-      <c r="D437" s="37"/>
-      <c r="E437" s="9"/>
-      <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H437" s="37"/>
-      <c r="I437" s="9"/>
-      <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="38"/>
-      <c r="B438" s="20"/>
-      <c r="C438" s="13"/>
-      <c r="D438" s="37"/>
-      <c r="E438" s="9"/>
-      <c r="F438" s="20"/>
-      <c r="G438" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H438" s="37"/>
-      <c r="I438" s="9"/>
-      <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="38"/>
-      <c r="B439" s="20"/>
-      <c r="C439" s="13"/>
-      <c r="D439" s="37"/>
-      <c r="E439" s="9"/>
-      <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H439" s="37"/>
-      <c r="I439" s="9"/>
-      <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="38"/>
-      <c r="B440" s="20"/>
-      <c r="C440" s="13"/>
-      <c r="D440" s="37"/>
-      <c r="E440" s="9"/>
-      <c r="F440" s="20"/>
-      <c r="G440" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H440" s="37"/>
-      <c r="I440" s="9"/>
-      <c r="J440" s="11"/>
-      <c r="K440" s="20"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="38"/>
-      <c r="B441" s="20"/>
-      <c r="C441" s="13"/>
-      <c r="D441" s="37"/>
-      <c r="E441" s="9"/>
-      <c r="F441" s="20"/>
-      <c r="G441" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H441" s="37"/>
-      <c r="I441" s="9"/>
-      <c r="J441" s="11"/>
-      <c r="K441" s="20"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="38"/>
-      <c r="B442" s="20"/>
-      <c r="C442" s="13"/>
-      <c r="D442" s="37"/>
-      <c r="E442" s="9"/>
-      <c r="F442" s="20"/>
-      <c r="G442" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H442" s="37"/>
-      <c r="I442" s="9"/>
-      <c r="J442" s="11"/>
-      <c r="K442" s="20"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="38"/>
-      <c r="B443" s="20"/>
-      <c r="C443" s="13"/>
-      <c r="D443" s="37"/>
-      <c r="E443" s="9"/>
-      <c r="F443" s="20"/>
-      <c r="G443" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H443" s="37"/>
-      <c r="I443" s="9"/>
-      <c r="J443" s="11"/>
-      <c r="K443" s="20"/>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="38"/>
-      <c r="B444" s="20"/>
-      <c r="C444" s="13"/>
-      <c r="D444" s="37"/>
-      <c r="E444" s="9"/>
-      <c r="F444" s="20"/>
-      <c r="G444" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H444" s="37"/>
-      <c r="I444" s="9"/>
-      <c r="J444" s="11"/>
-      <c r="K444" s="20"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="38"/>
-      <c r="B445" s="20"/>
-      <c r="C445" s="13"/>
-      <c r="D445" s="37"/>
-      <c r="E445" s="9"/>
-      <c r="F445" s="20"/>
-      <c r="G445" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H445" s="37"/>
-      <c r="I445" s="9"/>
-      <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="38"/>
-      <c r="B446" s="20"/>
-      <c r="C446" s="13"/>
-      <c r="D446" s="37"/>
-      <c r="E446" s="9"/>
-      <c r="F446" s="20"/>
-      <c r="G446" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H446" s="37"/>
-      <c r="I446" s="9"/>
-      <c r="J446" s="11"/>
-      <c r="K446" s="20"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="38"/>
-      <c r="B447" s="20"/>
-      <c r="C447" s="13"/>
-      <c r="D447" s="37"/>
-      <c r="E447" s="9"/>
-      <c r="F447" s="20"/>
-      <c r="G447" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H447" s="37"/>
-      <c r="I447" s="9"/>
-      <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="38"/>
-      <c r="B448" s="20"/>
-      <c r="C448" s="13"/>
-      <c r="D448" s="37"/>
-      <c r="E448" s="9"/>
-      <c r="F448" s="20"/>
-      <c r="G448" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H448" s="37"/>
-      <c r="I448" s="9"/>
-      <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="38"/>
-      <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
-      <c r="D449" s="37"/>
-      <c r="E449" s="9"/>
-      <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H449" s="37"/>
-      <c r="I449" s="9"/>
-      <c r="J449" s="11"/>
-      <c r="K449" s="20"/>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="38"/>
-      <c r="B450" s="20"/>
-      <c r="C450" s="13"/>
-      <c r="D450" s="37"/>
-      <c r="E450" s="9"/>
-      <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H450" s="37"/>
-      <c r="I450" s="9"/>
-      <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="38"/>
-      <c r="B451" s="20"/>
-      <c r="C451" s="13"/>
-      <c r="D451" s="37"/>
-      <c r="E451" s="9"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H451" s="37"/>
-      <c r="I451" s="9"/>
-      <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="38"/>
-      <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
-      <c r="D452" s="37"/>
-      <c r="E452" s="9"/>
-      <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H452" s="37"/>
-      <c r="I452" s="9"/>
-      <c r="J452" s="11"/>
-      <c r="K452" s="20"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="38"/>
-      <c r="B453" s="20"/>
-      <c r="C453" s="13"/>
-      <c r="D453" s="37"/>
-      <c r="E453" s="9"/>
-      <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H453" s="37"/>
-      <c r="I453" s="9"/>
-      <c r="J453" s="11"/>
-      <c r="K453" s="20"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="38"/>
-      <c r="B454" s="20"/>
-      <c r="C454" s="13"/>
-      <c r="D454" s="37"/>
-      <c r="E454" s="9"/>
-      <c r="F454" s="20"/>
-      <c r="G454" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H454" s="37"/>
-      <c r="I454" s="9"/>
-      <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="38"/>
-      <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
-      <c r="D455" s="37"/>
-      <c r="E455" s="9"/>
-      <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="37"/>
-      <c r="I455" s="9"/>
-      <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="38"/>
-      <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
-      <c r="D456" s="37"/>
-      <c r="E456" s="9"/>
-      <c r="F456" s="20"/>
-      <c r="G456" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H456" s="37"/>
-      <c r="I456" s="9"/>
-      <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="38"/>
-      <c r="B457" s="20"/>
-      <c r="C457" s="13"/>
-      <c r="D457" s="37"/>
-      <c r="E457" s="9"/>
-      <c r="F457" s="20"/>
-      <c r="G457" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H457" s="37"/>
-      <c r="I457" s="9"/>
-      <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="38"/>
-      <c r="B458" s="20"/>
-      <c r="C458" s="13"/>
-      <c r="D458" s="37"/>
-      <c r="E458" s="9"/>
-      <c r="F458" s="20"/>
-      <c r="G458" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H458" s="37"/>
-      <c r="I458" s="9"/>
-      <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="38"/>
-      <c r="B459" s="20"/>
-      <c r="C459" s="13"/>
-      <c r="D459" s="37"/>
-      <c r="E459" s="9"/>
-      <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H459" s="37"/>
-      <c r="I459" s="9"/>
-      <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="38"/>
-      <c r="B460" s="20"/>
-      <c r="C460" s="13"/>
-      <c r="D460" s="37"/>
-      <c r="E460" s="9"/>
-      <c r="F460" s="20"/>
-      <c r="G460" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H460" s="37"/>
-      <c r="I460" s="9"/>
-      <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="38"/>
-      <c r="B461" s="20"/>
-      <c r="C461" s="13"/>
-      <c r="D461" s="37"/>
-      <c r="E461" s="9"/>
-      <c r="F461" s="20"/>
-      <c r="G461" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H461" s="37"/>
-      <c r="I461" s="9"/>
-      <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="38"/>
-      <c r="B462" s="20"/>
-      <c r="C462" s="13"/>
-      <c r="D462" s="37"/>
-      <c r="E462" s="9"/>
-      <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H462" s="37"/>
-      <c r="I462" s="9"/>
-      <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="38"/>
-      <c r="B463" s="20"/>
-      <c r="C463" s="13"/>
-      <c r="D463" s="37"/>
-      <c r="E463" s="9"/>
-      <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H463" s="37"/>
-      <c r="I463" s="9"/>
-      <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="38"/>
-      <c r="B464" s="20"/>
-      <c r="C464" s="13"/>
-      <c r="D464" s="37"/>
-      <c r="E464" s="9"/>
-      <c r="F464" s="20"/>
-      <c r="G464" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H464" s="37"/>
-      <c r="I464" s="9"/>
-      <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="38"/>
-      <c r="B465" s="20"/>
-      <c r="C465" s="13"/>
-      <c r="D465" s="37"/>
-      <c r="E465" s="9"/>
-      <c r="F465" s="20"/>
-      <c r="G465" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H465" s="37"/>
-      <c r="I465" s="9"/>
-      <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="38"/>
-      <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
-      <c r="D466" s="37"/>
-      <c r="E466" s="9"/>
-      <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H466" s="37"/>
-      <c r="I466" s="9"/>
-      <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="38"/>
-      <c r="B467" s="20"/>
-      <c r="C467" s="13"/>
-      <c r="D467" s="37"/>
-      <c r="E467" s="9"/>
-      <c r="F467" s="20"/>
-      <c r="G467" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H467" s="37"/>
-      <c r="I467" s="9"/>
-      <c r="J467" s="11"/>
-      <c r="K467" s="20"/>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="38"/>
-      <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="37"/>
-      <c r="E468" s="9"/>
-      <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H468" s="37"/>
-      <c r="I468" s="9"/>
-      <c r="J468" s="11"/>
-      <c r="K468" s="20"/>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="38"/>
-      <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
-      <c r="D469" s="37"/>
-      <c r="E469" s="9"/>
-      <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H469" s="37"/>
-      <c r="I469" s="9"/>
-      <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="38"/>
-      <c r="B470" s="20"/>
-      <c r="C470" s="13"/>
-      <c r="D470" s="37"/>
-      <c r="E470" s="9"/>
-      <c r="F470" s="20"/>
-      <c r="G470" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H470" s="37"/>
-      <c r="I470" s="9"/>
-      <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="38"/>
-      <c r="B471" s="20"/>
-      <c r="C471" s="13"/>
-      <c r="D471" s="37"/>
-      <c r="E471" s="9"/>
-      <c r="F471" s="20"/>
-      <c r="G471" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H471" s="37"/>
-      <c r="I471" s="9"/>
-      <c r="J471" s="11"/>
-      <c r="K471" s="20"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="38"/>
-      <c r="B472" s="20"/>
-      <c r="C472" s="13"/>
-      <c r="D472" s="37"/>
-      <c r="E472" s="9"/>
-      <c r="F472" s="20"/>
-      <c r="G472" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H472" s="37"/>
-      <c r="I472" s="9"/>
-      <c r="J472" s="11"/>
-      <c r="K472" s="20"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="38"/>
-      <c r="B473" s="20"/>
-      <c r="C473" s="13"/>
-      <c r="D473" s="37"/>
-      <c r="E473" s="9"/>
-      <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H473" s="37"/>
-      <c r="I473" s="9"/>
-      <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="38"/>
-      <c r="B474" s="20"/>
-      <c r="C474" s="13"/>
-      <c r="D474" s="37"/>
-      <c r="E474" s="9"/>
-      <c r="F474" s="20"/>
-      <c r="G474" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H474" s="37"/>
-      <c r="I474" s="9"/>
-      <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="38"/>
-      <c r="B475" s="20"/>
-      <c r="C475" s="13"/>
-      <c r="D475" s="37"/>
-      <c r="E475" s="9"/>
-      <c r="F475" s="20"/>
-      <c r="G475" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H475" s="37"/>
-      <c r="I475" s="9"/>
-      <c r="J475" s="11"/>
-      <c r="K475" s="20"/>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="38"/>
-      <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
-      <c r="D476" s="37"/>
-      <c r="E476" s="9"/>
-      <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H476" s="37"/>
-      <c r="I476" s="9"/>
-      <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="38"/>
-      <c r="B477" s="20"/>
-      <c r="C477" s="13"/>
-      <c r="D477" s="37"/>
-      <c r="E477" s="9"/>
-      <c r="F477" s="20"/>
-      <c r="G477" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H477" s="37"/>
-      <c r="I477" s="9"/>
-      <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="38"/>
-      <c r="B478" s="20"/>
-      <c r="C478" s="13"/>
-      <c r="D478" s="37"/>
-      <c r="E478" s="9"/>
-      <c r="F478" s="20"/>
-      <c r="G478" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H478" s="37"/>
-      <c r="I478" s="9"/>
-      <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="38"/>
-      <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
-      <c r="D479" s="37"/>
-      <c r="E479" s="9"/>
-      <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H479" s="37"/>
-      <c r="I479" s="9"/>
-      <c r="J479" s="11"/>
-      <c r="K479" s="20"/>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="38"/>
-      <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
-      <c r="D480" s="37"/>
-      <c r="E480" s="9"/>
-      <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H480" s="37"/>
-      <c r="I480" s="9"/>
-      <c r="J480" s="11"/>
-      <c r="K480" s="20"/>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" s="38"/>
-      <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
-      <c r="D481" s="37"/>
-      <c r="E481" s="9"/>
-      <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H481" s="37"/>
-      <c r="I481" s="9"/>
-      <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="38"/>
-      <c r="B482" s="20"/>
-      <c r="C482" s="13"/>
-      <c r="D482" s="37"/>
-      <c r="E482" s="9"/>
-      <c r="F482" s="20"/>
-      <c r="G482" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H482" s="37"/>
-      <c r="I482" s="9"/>
-      <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" s="38"/>
-      <c r="B483" s="20"/>
-      <c r="C483" s="13"/>
-      <c r="D483" s="37"/>
-      <c r="E483" s="9"/>
-      <c r="F483" s="20"/>
-      <c r="G483" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H483" s="37"/>
-      <c r="I483" s="9"/>
-      <c r="J483" s="11"/>
-      <c r="K483" s="20"/>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="38"/>
-      <c r="B484" s="20"/>
-      <c r="C484" s="13"/>
-      <c r="D484" s="37"/>
-      <c r="E484" s="9"/>
-      <c r="F484" s="20"/>
-      <c r="G484" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H484" s="37"/>
-      <c r="I484" s="9"/>
-      <c r="J484" s="11"/>
-      <c r="K484" s="20"/>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="38"/>
-      <c r="B485" s="20"/>
-      <c r="C485" s="13"/>
-      <c r="D485" s="37"/>
-      <c r="E485" s="9"/>
-      <c r="F485" s="20"/>
-      <c r="G485" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H485" s="37"/>
-      <c r="I485" s="9"/>
-      <c r="J485" s="11"/>
-      <c r="K485" s="20"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="56"/>
-      <c r="B486" s="15"/>
-      <c r="C486" s="39"/>
-      <c r="D486" s="40"/>
-      <c r="E486" s="9"/>
-      <c r="F486" s="15"/>
-      <c r="G486" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H486" s="40"/>
-      <c r="I486" s="9"/>
-      <c r="J486" s="12"/>
-      <c r="K486" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14007,7 +13050,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -14029,8 +13072,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14048,17 +13091,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -14090,8 +13133,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>25.75</v>
+      </c>
+      <c r="B3" s="11">
+        <v>64.25</v>
+      </c>
       <c r="D3"/>
       <c r="E3">
         <v>3</v>
@@ -14124,6 +13171,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -14137,14 +13187,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>425.67499999999995</v>
+      </c>
       <c r="C7" s="35">
         <v>1</v>
       </c>
